--- a/ExcelMerger/testData/test1/output/out.xlsx
+++ b/ExcelMerger/testData/test1/output/out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -32,6 +32,15 @@
     <t>F</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -47,7 +56,16 @@
     <t>4.0</t>
   </si>
   <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
   </si>
 </sst>
 </file>
@@ -117,33 +135,65 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelMerger/testData/test1/output/out.xlsx
+++ b/ExcelMerger/testData/test1/output/out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -23,24 +23,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -48,24 +30,6 @@
   </si>
   <si>
     <t>3.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
   </si>
 </sst>
 </file>
@@ -126,74 +90,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
